--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Angptl1-Tek.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Angptl1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Tek</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>183.394962093806</v>
+        <v>0.650778</v>
       </c>
       <c r="H2">
-        <v>183.394962093806</v>
+        <v>1.952334</v>
       </c>
       <c r="I2">
-        <v>0.9934658714440783</v>
+        <v>0.003491029888488973</v>
       </c>
       <c r="J2">
-        <v>0.9934658714440783</v>
+        <v>0.003491029888488974</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.8628428355598</v>
+        <v>39.413899</v>
       </c>
       <c r="N2">
-        <v>10.8628428355598</v>
+        <v>118.241697</v>
       </c>
       <c r="O2">
-        <v>0.4334108883179406</v>
+        <v>0.7310109930444597</v>
       </c>
       <c r="P2">
-        <v>0.4334108883179406</v>
+        <v>0.7310109930444597</v>
       </c>
       <c r="Q2">
-        <v>1992.190650058461</v>
+        <v>25.649698363422</v>
       </c>
       <c r="R2">
-        <v>1992.190650058461</v>
+        <v>230.847285270798</v>
       </c>
       <c r="S2">
-        <v>0.4305789258561349</v>
+        <v>0.002551981225532214</v>
       </c>
       <c r="T2">
-        <v>0.4305789258561349</v>
+        <v>0.002551981225532214</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>183.394962093806</v>
+        <v>0.650778</v>
       </c>
       <c r="H3">
-        <v>183.394962093806</v>
+        <v>1.952334</v>
       </c>
       <c r="I3">
-        <v>0.9934658714440783</v>
+        <v>0.003491029888488973</v>
       </c>
       <c r="J3">
-        <v>0.9934658714440783</v>
+        <v>0.003491029888488974</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.2588911065236</v>
+        <v>11.40791933333333</v>
       </c>
       <c r="N3">
-        <v>11.2588911065236</v>
+        <v>34.223758</v>
       </c>
       <c r="O3">
-        <v>0.4492126112677838</v>
+        <v>0.2115830874897988</v>
       </c>
       <c r="P3">
-        <v>0.4492126112677838</v>
+        <v>0.2115830874897987</v>
       </c>
       <c r="Q3">
-        <v>2064.823907699185</v>
+        <v>7.424022927908</v>
       </c>
       <c r="R3">
-        <v>2064.823907699185</v>
+        <v>66.81620635117201</v>
       </c>
       <c r="S3">
-        <v>0.4462773983168188</v>
+        <v>0.0007386428823256648</v>
       </c>
       <c r="T3">
-        <v>0.4462773983168188</v>
+        <v>0.0007386428823256649</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>183.394962093806</v>
+        <v>0.650778</v>
       </c>
       <c r="H4">
-        <v>183.394962093806</v>
+        <v>1.952334</v>
       </c>
       <c r="I4">
-        <v>0.9934658714440783</v>
+        <v>0.003491029888488973</v>
       </c>
       <c r="J4">
-        <v>0.9934658714440783</v>
+        <v>0.003491029888488974</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.94187919813623</v>
+        <v>3.095153333333334</v>
       </c>
       <c r="N4">
-        <v>2.94187919813623</v>
+        <v>9.28546</v>
       </c>
       <c r="O4">
-        <v>0.1173765004142755</v>
+        <v>0.05740591946574151</v>
       </c>
       <c r="P4">
-        <v>0.1173765004142755</v>
+        <v>0.0574059194657415</v>
       </c>
       <c r="Q4">
-        <v>539.5258240267502</v>
+        <v>2.01425769596</v>
       </c>
       <c r="R4">
-        <v>539.5258240267502</v>
+        <v>18.12831926364</v>
       </c>
       <c r="S4">
-        <v>0.1166095472711244</v>
+        <v>0.0002004057806310946</v>
       </c>
       <c r="T4">
-        <v>0.1166095472711244</v>
+        <v>0.0002004057806310946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.2062077754996</v>
+        <v>184.2407583333334</v>
       </c>
       <c r="H5">
-        <v>1.2062077754996</v>
+        <v>552.7222750000001</v>
       </c>
       <c r="I5">
-        <v>0.006534128555921797</v>
+        <v>0.988340100648056</v>
       </c>
       <c r="J5">
-        <v>0.006534128555921797</v>
+        <v>0.9883401006480562</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.8628428355598</v>
+        <v>39.413899</v>
       </c>
       <c r="N5">
-        <v>10.8628428355598</v>
+        <v>118.241697</v>
       </c>
       <c r="O5">
-        <v>0.4334108883179406</v>
+        <v>0.7310109930444597</v>
       </c>
       <c r="P5">
-        <v>0.4334108883179406</v>
+        <v>0.7310109930444597</v>
       </c>
       <c r="Q5">
-        <v>13.10284549228235</v>
+        <v>7261.646640633409</v>
       </c>
       <c r="R5">
-        <v>13.10284549228235</v>
+        <v>65354.81976570068</v>
       </c>
       <c r="S5">
-        <v>0.002831962461805688</v>
+        <v>0.7224874784403966</v>
       </c>
       <c r="T5">
-        <v>0.002831962461805688</v>
+        <v>0.7224874784403968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.2062077754996</v>
+        <v>184.2407583333334</v>
       </c>
       <c r="H6">
-        <v>1.2062077754996</v>
+        <v>552.7222750000001</v>
       </c>
       <c r="I6">
-        <v>0.006534128555921797</v>
+        <v>0.988340100648056</v>
       </c>
       <c r="J6">
-        <v>0.006534128555921797</v>
+        <v>0.9883401006480562</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.2588911065236</v>
+        <v>11.40791933333333</v>
       </c>
       <c r="N6">
-        <v>11.2588911065236</v>
+        <v>34.223758</v>
       </c>
       <c r="O6">
-        <v>0.4492126112677838</v>
+        <v>0.2115830874897988</v>
       </c>
       <c r="P6">
-        <v>0.4492126112677838</v>
+        <v>0.2115830874897987</v>
       </c>
       <c r="Q6">
-        <v>13.58056199619206</v>
+        <v>2101.803708978828</v>
       </c>
       <c r="R6">
-        <v>13.58056199619206</v>
+        <v>18916.23338080946</v>
       </c>
       <c r="S6">
-        <v>0.002935212950965024</v>
+        <v>0.2091160499850941</v>
       </c>
       <c r="T6">
-        <v>0.002935212950965024</v>
+        <v>0.2091160499850942</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>184.2407583333334</v>
+      </c>
+      <c r="H7">
+        <v>552.7222750000001</v>
+      </c>
+      <c r="I7">
+        <v>0.988340100648056</v>
+      </c>
+      <c r="J7">
+        <v>0.9883401006480562</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.095153333333334</v>
+      </c>
+      <c r="N7">
+        <v>9.28546</v>
+      </c>
+      <c r="O7">
+        <v>0.05740591946574151</v>
+      </c>
+      <c r="P7">
+        <v>0.0574059194657415</v>
+      </c>
+      <c r="Q7">
+        <v>570.2533972912779</v>
+      </c>
+      <c r="R7">
+        <v>5132.280575621501</v>
+      </c>
+      <c r="S7">
+        <v>0.05673657222256517</v>
+      </c>
+      <c r="T7">
+        <v>0.05673657222256517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1251376666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.375413</v>
+      </c>
+      <c r="I8">
+        <v>0.0006712878039962992</v>
+      </c>
+      <c r="J8">
+        <v>0.0006712878039962993</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>39.413899</v>
+      </c>
+      <c r="N8">
+        <v>118.241697</v>
+      </c>
+      <c r="O8">
+        <v>0.7310109930444597</v>
+      </c>
+      <c r="P8">
+        <v>0.7310109930444597</v>
+      </c>
+      <c r="Q8">
+        <v>4.932163355095667</v>
+      </c>
+      <c r="R8">
+        <v>44.389470195861</v>
+      </c>
+      <c r="S8">
+        <v>0.0004907187642179693</v>
+      </c>
+      <c r="T8">
+        <v>0.0004907187642179694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1251376666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.375413</v>
+      </c>
+      <c r="I9">
+        <v>0.0006712878039962992</v>
+      </c>
+      <c r="J9">
+        <v>0.0006712878039962993</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>11.40791933333333</v>
+      </c>
+      <c r="N9">
+        <v>34.223758</v>
+      </c>
+      <c r="O9">
+        <v>0.2115830874897988</v>
+      </c>
+      <c r="P9">
+        <v>0.2115830874897987</v>
+      </c>
+      <c r="Q9">
+        <v>1.427560406894889</v>
+      </c>
+      <c r="R9">
+        <v>12.848043662054</v>
+      </c>
+      <c r="S9">
+        <v>0.0001420331461637839</v>
+      </c>
+      <c r="T9">
+        <v>0.0001420331461637839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1251376666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.375413</v>
+      </c>
+      <c r="I10">
+        <v>0.0006712878039962992</v>
+      </c>
+      <c r="J10">
+        <v>0.0006712878039962993</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.095153333333334</v>
+      </c>
+      <c r="N10">
+        <v>9.28546</v>
+      </c>
+      <c r="O10">
+        <v>0.05740591946574151</v>
+      </c>
+      <c r="P10">
+        <v>0.0574059194657415</v>
+      </c>
+      <c r="Q10">
+        <v>0.387320266108889</v>
+      </c>
+      <c r="R10">
+        <v>3.48588239498</v>
+      </c>
+      <c r="S10">
+        <v>3.853589361454603E-05</v>
+      </c>
+      <c r="T10">
+        <v>3.853589361454602E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.397656666666667</v>
+      </c>
+      <c r="H11">
+        <v>4.19297</v>
+      </c>
+      <c r="I11">
+        <v>0.007497581659458683</v>
+      </c>
+      <c r="J11">
+        <v>0.007497581659458685</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>39.413899</v>
+      </c>
+      <c r="N11">
+        <v>118.241697</v>
+      </c>
+      <c r="O11">
+        <v>0.7310109930444597</v>
+      </c>
+      <c r="P11">
+        <v>0.7310109930444597</v>
+      </c>
+      <c r="Q11">
+        <v>55.08709869667666</v>
+      </c>
+      <c r="R11">
+        <v>495.78388827009</v>
+      </c>
+      <c r="S11">
+        <v>0.00548081461431282</v>
+      </c>
+      <c r="T11">
+        <v>0.005480814614312822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.2062077754996</v>
-      </c>
-      <c r="H7">
-        <v>1.2062077754996</v>
-      </c>
-      <c r="I7">
-        <v>0.006534128555921797</v>
-      </c>
-      <c r="J7">
-        <v>0.006534128555921797</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.94187919813623</v>
-      </c>
-      <c r="N7">
-        <v>2.94187919813623</v>
-      </c>
-      <c r="O7">
-        <v>0.1173765004142755</v>
-      </c>
-      <c r="P7">
-        <v>0.1173765004142755</v>
-      </c>
-      <c r="Q7">
-        <v>3.548517563372449</v>
-      </c>
-      <c r="R7">
-        <v>3.548517563372449</v>
-      </c>
-      <c r="S7">
-        <v>0.0007669531431510839</v>
-      </c>
-      <c r="T7">
-        <v>0.0007669531431510839</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.397656666666667</v>
+      </c>
+      <c r="H12">
+        <v>4.19297</v>
+      </c>
+      <c r="I12">
+        <v>0.007497581659458683</v>
+      </c>
+      <c r="J12">
+        <v>0.007497581659458685</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>11.40791933333333</v>
+      </c>
+      <c r="N12">
+        <v>34.223758</v>
+      </c>
+      <c r="O12">
+        <v>0.2115830874897988</v>
+      </c>
+      <c r="P12">
+        <v>0.2115830874897987</v>
+      </c>
+      <c r="Q12">
+        <v>15.94435450902889</v>
+      </c>
+      <c r="R12">
+        <v>143.49919058126</v>
+      </c>
+      <c r="S12">
+        <v>0.001586361476215157</v>
+      </c>
+      <c r="T12">
+        <v>0.001586361476215157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.397656666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.19297</v>
+      </c>
+      <c r="I13">
+        <v>0.007497581659458683</v>
+      </c>
+      <c r="J13">
+        <v>0.007497581659458685</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.095153333333334</v>
+      </c>
+      <c r="N13">
+        <v>9.28546</v>
+      </c>
+      <c r="O13">
+        <v>0.05740591946574151</v>
+      </c>
+      <c r="P13">
+        <v>0.0574059194657415</v>
+      </c>
+      <c r="Q13">
+        <v>4.325961690688889</v>
+      </c>
+      <c r="R13">
+        <v>38.9336552162</v>
+      </c>
+      <c r="S13">
+        <v>0.0004304055689307057</v>
+      </c>
+      <c r="T13">
+        <v>0.0004304055689307058</v>
       </c>
     </row>
   </sheetData>
